--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06870A39-4DF4-4E7D-B5F5-3D0240C0466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
     <sheet name="Enemy" sheetId="2" r:id="rId2"/>
-    <sheet name="EnemyData" sheetId="3" r:id="rId3"/>
+    <sheet name="StageData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>towerName</t>
   </si>
@@ -293,12 +292,40 @@
   </si>
   <si>
     <t>enemyCount6</t>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,26 +460,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,23 +495,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1692,15 +1685,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1708,11 +1800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>towerName</t>
   </si>
@@ -254,9 +254,6 @@
     <t>TowerIcon/Grenadier/BoomTower2</t>
   </si>
   <si>
-    <t>TowerIcon/Grenadier/BoomTower3</t>
-  </si>
-  <si>
     <t>TowerIcon/Grenadier/BoomTower4</t>
   </si>
   <si>
@@ -320,6 +317,25 @@
   <si>
     <t>2.5f</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageIcon/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageIcon/1</t>
+  </si>
+  <si>
+    <t>ImageIcon/2</t>
+  </si>
+  <si>
+    <t>ImageIcon/3</t>
+  </si>
+  <si>
+    <t>ImageIcon/4</t>
+  </si>
+  <si>
+    <t>ImageIcon/5</t>
   </si>
 </sst>
 </file>
@@ -674,7 +690,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -807,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
@@ -871,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -903,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
@@ -1686,29 +1702,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1719,10 +1741,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1733,10 +1758,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1747,10 +1775,13 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1761,10 +1792,13 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1775,10 +1809,13 @@
         <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1789,7 +1826,10 @@
         <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1815,28 +1855,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>towerName</t>
   </si>
@@ -307,35 +307,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageIcon/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageIcon/1</t>
-  </si>
-  <si>
-    <t>ImageIcon/2</t>
-  </si>
-  <si>
-    <t>ImageIcon/3</t>
-  </si>
-  <si>
-    <t>ImageIcon/4</t>
-  </si>
-  <si>
-    <t>ImageIcon/5</t>
+    <t>splashRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyIcon/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyIcon/1</t>
+  </si>
+  <si>
+    <t>EnemyIcon/2</t>
+  </si>
+  <si>
+    <t>EnemyIcon/3</t>
+  </si>
+  <si>
+    <t>EnemyIcon/4</t>
+  </si>
+  <si>
+    <t>EnemyIcon/5</t>
   </si>
 </sst>
 </file>
@@ -687,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,7 +693,7 @@
     <col min="11" max="18" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -724,16 +716,19 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -755,17 +750,20 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -787,17 +785,20 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -819,17 +820,20 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -851,17 +855,20 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -883,17 +890,20 @@
       <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -915,17 +925,20 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -947,17 +960,20 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" t="b">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -979,17 +995,20 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" t="b">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1011,17 +1030,20 @@
       <c r="G10">
         <v>7</v>
       </c>
-      <c r="H10" t="b">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1043,17 +1065,20 @@
       <c r="G11">
         <v>9</v>
       </c>
-      <c r="H11" t="b">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1075,17 +1100,20 @@
       <c r="G12">
         <v>11</v>
       </c>
-      <c r="H12" t="b">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1107,17 +1135,20 @@
       <c r="G13">
         <v>13</v>
       </c>
-      <c r="H13" t="b">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1139,17 +1170,20 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1171,17 +1205,20 @@
       <c r="G15">
         <v>5</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1203,17 +1240,20 @@
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1235,17 +1275,20 @@
       <c r="G17">
         <v>9</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1267,17 +1310,20 @@
       <c r="G18">
         <v>11</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1299,17 +1345,20 @@
       <c r="G19">
         <v>13</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1331,17 +1380,20 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1363,17 +1415,20 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1395,17 +1450,20 @@
       <c r="G22">
         <v>4</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1427,17 +1485,20 @@
       <c r="G23">
         <v>5</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1459,17 +1520,20 @@
       <c r="G24">
         <v>6</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1491,17 +1555,20 @@
       <c r="G25">
         <v>7</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1523,17 +1590,20 @@
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1555,17 +1625,20 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1587,17 +1660,20 @@
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1619,17 +1695,20 @@
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1651,17 +1730,20 @@
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1683,13 +1765,16 @@
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1705,7 +1790,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1740,11 +1825,11 @@
       <c r="C2">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
+      <c r="D2">
+        <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,11 +1842,11 @@
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>77</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,11 +1859,11 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
+      <c r="D4">
+        <v>2.5</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,11 +1876,11 @@
       <c r="C5">
         <v>140</v>
       </c>
-      <c r="D5" t="s">
-        <v>78</v>
+      <c r="D5">
+        <v>2.5</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,11 +1893,11 @@
       <c r="C6">
         <v>180</v>
       </c>
-      <c r="D6" t="s">
-        <v>78</v>
+      <c r="D6">
+        <v>2.5</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1825,11 +1910,11 @@
       <c r="C7">
         <v>250</v>
       </c>
-      <c r="D7" t="s">
-        <v>78</v>
+      <c r="D7">
+        <v>2.5</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1843,14 +1928,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1884,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1907,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1930,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1953,13 +2039,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1976,13 +2062,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1999,13 +2085,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2022,13 +2108,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2045,16 +2131,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2068,16 +2154,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2108,6 +2194,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2131,9 +2220,6 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2574,6 +2660,9 @@
       <c r="G31">
         <v>0</v>
       </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -2597,9 +2686,6 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -2807,6 +2893,9 @@
       <c r="G41">
         <v>0</v>
       </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -2829,9 +2918,6 @@
       </c>
       <c r="G42">
         <v>0</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>towerName</t>
   </si>
@@ -311,30 +311,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EnemyIcon/1</t>
+  </si>
+  <si>
+    <t>EnemyIcon/2</t>
+  </si>
+  <si>
+    <t>EnemyIcon/3</t>
+  </si>
+  <si>
+    <t>EnemyIcon/4</t>
+  </si>
+  <si>
+    <t>EnemyIcon/5</t>
+  </si>
+  <si>
     <t>EnemyIcon/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnemyIcon/1</t>
-  </si>
-  <si>
-    <t>EnemyIcon/2</t>
-  </si>
-  <si>
-    <t>EnemyIcon/3</t>
-  </si>
-  <si>
-    <t>EnemyIcon/4</t>
-  </si>
-  <si>
-    <t>EnemyIcon/5</t>
+    <t>TowerIcon/Grenadier/BoomTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +352,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDDDE"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,11 +381,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -681,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -747,8 +759,8 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="G2" s="2">
+        <v>6</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -783,7 +795,7 @@
         <v>3.5</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -818,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -827,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -853,7 +865,7 @@
         <v>2.5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -888,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -923,7 +935,7 @@
         <v>1.5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -958,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -993,7 +1005,7 @@
         <v>3.5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1028,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1063,7 +1075,7 @@
         <v>2.5</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1098,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1133,7 +1145,7 @@
         <v>1.5</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1168,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1203,7 +1215,7 @@
         <v>3.5</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1238,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1273,7 +1285,7 @@
         <v>2.5</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1308,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1343,7 +1355,7 @@
         <v>1.5</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1378,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1413,7 +1425,7 @@
         <v>0.9</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1448,7 +1460,7 @@
         <v>0.8</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1483,7 +1495,7 @@
         <v>0.7</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1518,7 +1530,7 @@
         <v>0.6</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1553,7 +1565,7 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1623,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1658,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1693,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1728,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1789,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1829,7 +1841,7 @@
         <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1846,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1863,7 +1875,7 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1880,7 +1892,7 @@
         <v>2.5</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1897,7 +1909,7 @@
         <v>2.5</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1914,7 +1926,7 @@
         <v>2.5</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>3.5</v>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1069,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>2.5</v>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>1.5</v>

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,7 +702,8 @@
     <col min="1" max="8" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="31.75" customWidth="1"/>
     <col min="10" max="10" width="100.625" customWidth="1"/>
-    <col min="11" max="18" width="25.625" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="18" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -740,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -757,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="2">
         <v>6</v>
@@ -775,7 +776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -792,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -810,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -827,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -845,7 +846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -862,7 +863,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -880,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -897,7 +898,7 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -915,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -932,7 +933,7 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -950,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -985,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -1195,7 +1196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="G15">
         <v>8</v>
@@ -1230,7 +1231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1265,7 +1266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1300,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>60</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -1335,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>80</v>
       </c>
       <c r="F19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1370,7 +1371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -1440,7 +1441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -1475,7 +1476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1510,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="F24">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -1545,7 +1546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
         <v>11</v>
@@ -1580,7 +1581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2029,10 +2029,10 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>20</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2075,10 +2075,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -2098,10 +2098,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -2121,13 +2121,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2144,16 +2144,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2167,16 +2167,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2596,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2616,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>

--- a/TrickyTowerDefense/Assets/Data/Datas.xlsx
+++ b/TrickyTowerDefense/Assets/Data/Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,10 @@
     <font>
       <sz val="12"/>
       <color rgb="FFDCDDDE"/>
-      <name val="굴림"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -693,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1803,7 +1804,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1836,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
@@ -1853,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1870,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>78</v>
@@ -1887,10 +1888,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
@@ -1904,10 +1905,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="E6" t="s">
         <v>80</v>
@@ -1921,10 +1922,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="E7" t="s">
         <v>81</v>
@@ -1941,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
